--- a/雨量表.xlsx
+++ b/雨量表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="487">
   <si>
     <t>排行</t>
   </si>
@@ -331,1021 +331,1150 @@
     <t>100</t>
   </si>
   <si>
-    <t>57.5</t>
+    <t>338.5</t>
+  </si>
+  <si>
+    <t>331.5</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>251.5</t>
+  </si>
+  <si>
+    <t>202.0</t>
+  </si>
+  <si>
+    <t>182.0</t>
+  </si>
+  <si>
+    <t>174.5</t>
+  </si>
+  <si>
+    <t>169.5</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>137.5</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>132.5</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>111.5</t>
+  </si>
+  <si>
+    <t>105.5</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>99.5</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>96.5</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>93.5</t>
+  </si>
+  <si>
+    <t>91.5</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>81.5</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>77.5</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>61.5</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>53.5</t>
   </si>
   <si>
     <t>53.0</t>
   </si>
   <si>
-    <t>50.0</t>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>43.5</t>
+  </si>
+  <si>
+    <t>42.5</t>
   </si>
   <si>
     <t>42.0</t>
   </si>
   <si>
-    <t>41.5</t>
+    <t>40.5</t>
+  </si>
+  <si>
+    <t>39.5</t>
+  </si>
+  <si>
+    <t>38.0</t>
   </si>
   <si>
     <t>37.0</t>
   </si>
   <si>
-    <t>36.5</t>
+    <t>35.5</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>32.0</t>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>32.5</t>
   </si>
   <si>
     <t>31.5</t>
   </si>
   <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
     <t>30.0</t>
   </si>
   <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>9.0</t>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>蘇澳</t>
+  </si>
+  <si>
+    <t>五結</t>
+  </si>
+  <si>
+    <t>永樂國小</t>
+  </si>
+  <si>
+    <t>東澳嶺</t>
+  </si>
+  <si>
+    <t>冬山</t>
+  </si>
+  <si>
+    <t>宜蘭</t>
+  </si>
+  <si>
+    <t>羅東</t>
+  </si>
+  <si>
+    <t>新北城</t>
+  </si>
+  <si>
+    <t>烏石鼻</t>
+  </si>
+  <si>
+    <t>吉林國小</t>
+  </si>
+  <si>
+    <t>新寮</t>
+  </si>
+  <si>
+    <t>新寮(1)</t>
+  </si>
+  <si>
+    <t>員山子</t>
   </si>
   <si>
     <t>大坪</t>
   </si>
   <si>
-    <t>馬太安</t>
-  </si>
-  <si>
-    <t>太安</t>
+    <t>瑞芳</t>
+  </si>
+  <si>
+    <t>西帽山</t>
+  </si>
+  <si>
+    <t>寒溪</t>
+  </si>
+  <si>
+    <t>蘭陽分場</t>
+  </si>
+  <si>
+    <t>員山</t>
+  </si>
+  <si>
+    <t>雙溪</t>
+  </si>
+  <si>
+    <t>三和</t>
+  </si>
+  <si>
+    <t>大粗坑</t>
+  </si>
+  <si>
+    <t>水保局寒溪</t>
+  </si>
+  <si>
+    <t>西德山</t>
+  </si>
+  <si>
+    <t>富貴角</t>
+  </si>
+  <si>
+    <t>東澳</t>
+  </si>
+  <si>
+    <t>雙連埤</t>
+  </si>
+  <si>
+    <t>三星</t>
+  </si>
+  <si>
+    <t>內城</t>
+  </si>
+  <si>
+    <t>泰平</t>
+  </si>
+  <si>
+    <t>福隆</t>
+  </si>
+  <si>
+    <t>柑林國小</t>
+  </si>
+  <si>
+    <t>蘭嶼高中</t>
   </si>
   <si>
     <t>擎天</t>
   </si>
   <si>
+    <t>福山植物園</t>
+  </si>
+  <si>
+    <t>清水</t>
+  </si>
+  <si>
+    <t>玉蘭</t>
+  </si>
+  <si>
+    <t>三芝</t>
+  </si>
+  <si>
+    <t>大礁溪</t>
+  </si>
+  <si>
+    <t>基隆</t>
+  </si>
+  <si>
+    <t>鞍部</t>
+  </si>
+  <si>
+    <t>溪山</t>
+  </si>
+  <si>
+    <t>上林國小</t>
+  </si>
+  <si>
     <t>五分山</t>
   </si>
   <si>
-    <t>三和</t>
-  </si>
-  <si>
-    <t>鞍部</t>
-  </si>
-  <si>
-    <t>荖溪</t>
-  </si>
-  <si>
-    <t>泰平</t>
-  </si>
-  <si>
-    <t>大粗坑</t>
-  </si>
-  <si>
-    <t>太平</t>
+    <t>五堵</t>
   </si>
   <si>
     <t>水利署火燒寮</t>
   </si>
   <si>
-    <t>大桶山</t>
-  </si>
-  <si>
-    <t>茶場</t>
-  </si>
-  <si>
-    <t>中平林道</t>
+    <t>牛鬥</t>
   </si>
   <si>
     <t>五指山</t>
   </si>
   <si>
-    <t>鳳林山</t>
+    <t>復興國小</t>
+  </si>
+  <si>
+    <t>桃源谷</t>
+  </si>
+  <si>
+    <t>大福</t>
+  </si>
+  <si>
+    <t>油坑</t>
+  </si>
+  <si>
+    <t>金山</t>
+  </si>
+  <si>
+    <t>七堵</t>
+  </si>
+  <si>
+    <t>大里國小</t>
+  </si>
+  <si>
+    <t>萬里國小</t>
+  </si>
+  <si>
+    <t>平溪旅遊</t>
+  </si>
+  <si>
+    <t>北關</t>
+  </si>
+  <si>
+    <t>竹湖</t>
+  </si>
+  <si>
+    <t>礁溪</t>
+  </si>
+  <si>
+    <t>大溪國小</t>
+  </si>
+  <si>
+    <t>頭城</t>
+  </si>
+  <si>
+    <t>鶯子嶺</t>
+  </si>
+  <si>
+    <t>竹子湖(2)</t>
+  </si>
+  <si>
+    <t>火燒寮</t>
   </si>
   <si>
     <t>陽明山</t>
   </si>
   <si>
-    <t>壽卡</t>
+    <t>五峰</t>
+  </si>
+  <si>
+    <t>南澳</t>
+  </si>
+  <si>
+    <t>汐止</t>
+  </si>
+  <si>
+    <t>觀音海岸</t>
   </si>
   <si>
     <t>三貂嶺</t>
   </si>
   <si>
-    <t>火燒寮</t>
-  </si>
-  <si>
-    <t>鳳義坑</t>
-  </si>
-  <si>
-    <t>十三股</t>
-  </si>
-  <si>
-    <t>富貴角</t>
-  </si>
-  <si>
-    <t>貓空</t>
-  </si>
-  <si>
-    <t>三芝</t>
-  </si>
-  <si>
-    <t>竹子湖(2)</t>
-  </si>
-  <si>
-    <t>大溪山</t>
-  </si>
-  <si>
-    <t>平溪旅遊</t>
-  </si>
-  <si>
-    <t>九芎根</t>
-  </si>
-  <si>
-    <t>竹湖</t>
-  </si>
-  <si>
-    <t>瑞穗林道</t>
-  </si>
-  <si>
-    <t>大豹</t>
-  </si>
-  <si>
-    <t>油坑</t>
-  </si>
-  <si>
-    <t>文山茶改</t>
-  </si>
-  <si>
     <t>大屯山</t>
   </si>
   <si>
-    <t>溪山</t>
-  </si>
-  <si>
-    <t>瑞芳</t>
-  </si>
-  <si>
-    <t>桶後</t>
-  </si>
-  <si>
-    <t>大興</t>
-  </si>
-  <si>
-    <t>桃源谷</t>
-  </si>
-  <si>
-    <t>大農</t>
-  </si>
-  <si>
-    <t>鶯子嶺</t>
-  </si>
-  <si>
-    <t>四十份</t>
-  </si>
-  <si>
-    <t>龍澗</t>
-  </si>
-  <si>
-    <t>旭海</t>
-  </si>
-  <si>
-    <t>南美山</t>
-  </si>
-  <si>
-    <t>富源</t>
+    <t>南湖圈谷</t>
+  </si>
+  <si>
+    <t>鴛鴦湖</t>
+  </si>
+  <si>
+    <t>樟樹山</t>
+  </si>
+  <si>
+    <t>梵梵(2)</t>
+  </si>
+  <si>
+    <t>蘭嶼</t>
+  </si>
+  <si>
+    <t>平等</t>
+  </si>
+  <si>
+    <t>坪林石牌</t>
+  </si>
+  <si>
+    <t>基隆嶼</t>
+  </si>
+  <si>
+    <t>小奇萊</t>
+  </si>
+  <si>
+    <t>樂水分校</t>
+  </si>
+  <si>
+    <t>翠峰湖</t>
+  </si>
+  <si>
+    <t>武塔</t>
+  </si>
+  <si>
+    <t>雪山圈谷</t>
+  </si>
+  <si>
+    <t>蘭嶼燈塔</t>
+  </si>
+  <si>
+    <t>雪山東峰</t>
+  </si>
+  <si>
+    <t>社后橋</t>
+  </si>
+  <si>
+    <t>向陽(2)</t>
+  </si>
+  <si>
+    <t>白沙灣</t>
   </si>
   <si>
     <t>淡水</t>
   </si>
   <si>
-    <t>柑林國小</t>
-  </si>
-  <si>
-    <t>知本</t>
-  </si>
-  <si>
-    <t>龍潭</t>
-  </si>
-  <si>
-    <t>上林國小</t>
-  </si>
-  <si>
-    <t>菁山</t>
-  </si>
-  <si>
-    <t>熊空山</t>
+    <t>平等國小</t>
+  </si>
+  <si>
+    <t>審馬陣</t>
   </si>
   <si>
     <t>湖田國小</t>
   </si>
   <si>
-    <t>牡丹池山</t>
-  </si>
-  <si>
-    <t>新東礦</t>
-  </si>
-  <si>
-    <t>國一五楊N44K</t>
-  </si>
-  <si>
-    <t>太麻里</t>
-  </si>
-  <si>
-    <t>嘎色鬧分校</t>
-  </si>
-  <si>
-    <t>土城</t>
-  </si>
-  <si>
-    <t>坪林(4)</t>
-  </si>
-  <si>
-    <t>覽勝橋</t>
-  </si>
-  <si>
-    <t>萬里國小</t>
-  </si>
-  <si>
-    <t>五堵</t>
-  </si>
-  <si>
-    <t>立山</t>
-  </si>
-  <si>
-    <t>大觀</t>
-  </si>
-  <si>
-    <t>三棧</t>
-  </si>
-  <si>
-    <t>翡翠</t>
-  </si>
-  <si>
-    <t>復興國小</t>
-  </si>
-  <si>
-    <t>金針山</t>
-  </si>
-  <si>
-    <t>光復</t>
-  </si>
-  <si>
-    <t>坪林</t>
-  </si>
-  <si>
-    <t>山佳</t>
-  </si>
-  <si>
-    <t>中興</t>
-  </si>
-  <si>
-    <t>清水林道</t>
-  </si>
-  <si>
-    <t>檳榔</t>
-  </si>
-  <si>
-    <t>舊莊</t>
-  </si>
-  <si>
-    <t>大地工程處大湖</t>
-  </si>
-  <si>
-    <t>中和</t>
-  </si>
-  <si>
-    <t>八德</t>
-  </si>
-  <si>
-    <t>翡翠水庫坪林</t>
-  </si>
-  <si>
-    <t>七堵</t>
-  </si>
-  <si>
-    <t>茶改場</t>
-  </si>
-  <si>
-    <t>員山子</t>
-  </si>
-  <si>
-    <t>六十石山</t>
-  </si>
-  <si>
-    <t>蘆竹</t>
-  </si>
-  <si>
-    <t>水源</t>
-  </si>
-  <si>
-    <t>大溪</t>
-  </si>
-  <si>
-    <t>東里</t>
-  </si>
-  <si>
-    <t>萬榮</t>
-  </si>
-  <si>
-    <t>加路蘭山</t>
-  </si>
-  <si>
-    <t>板橋</t>
-  </si>
-  <si>
-    <t>石門</t>
-  </si>
-  <si>
-    <t>吉林國小</t>
-  </si>
-  <si>
-    <t>外坪(五指山)</t>
-  </si>
-  <si>
-    <t>林口(1)</t>
+    <t>桃山</t>
+  </si>
+  <si>
+    <t>向陽</t>
+  </si>
+  <si>
+    <t>太平山(1)</t>
+  </si>
+  <si>
+    <t>46706</t>
+  </si>
+  <si>
+    <t>C0U78</t>
+  </si>
+  <si>
+    <t>81U91</t>
+  </si>
+  <si>
+    <t>C1U84</t>
+  </si>
+  <si>
+    <t>C0U91</t>
+  </si>
+  <si>
+    <t>01U13</t>
+  </si>
+  <si>
+    <t>46708</t>
+  </si>
+  <si>
+    <t>C0U94</t>
+  </si>
+  <si>
+    <t>01U19</t>
+  </si>
+  <si>
+    <t>C1U83</t>
+  </si>
+  <si>
+    <t>O1AH3</t>
+  </si>
+  <si>
+    <t>C1U69</t>
+  </si>
+  <si>
+    <t>01U12</t>
+  </si>
+  <si>
+    <t>NUP81</t>
   </si>
   <si>
     <t>C0A86</t>
   </si>
   <si>
-    <t>01T66</t>
-  </si>
-  <si>
-    <t>C1T95</t>
+    <t>C0A66</t>
+  </si>
+  <si>
+    <t>C0UA5</t>
+  </si>
+  <si>
+    <t>C1U67</t>
+  </si>
+  <si>
+    <t>72U48</t>
+  </si>
+  <si>
+    <t>C0U99</t>
+  </si>
+  <si>
+    <t>01A38</t>
+  </si>
+  <si>
+    <t>C0A89</t>
+  </si>
+  <si>
+    <t>C0A93</t>
+  </si>
+  <si>
+    <t>81AI3</t>
+  </si>
+  <si>
+    <t>88U94</t>
+  </si>
+  <si>
+    <t>C0UA4</t>
+  </si>
+  <si>
+    <t>C0A92</t>
+  </si>
+  <si>
+    <t>C0U76</t>
+  </si>
+  <si>
+    <t>C0U52</t>
+  </si>
+  <si>
+    <t>C0U89</t>
+  </si>
+  <si>
+    <t>C0U90</t>
+  </si>
+  <si>
+    <t>C0A55</t>
+  </si>
+  <si>
+    <t>C0A88</t>
+  </si>
+  <si>
+    <t>81AH7</t>
+  </si>
+  <si>
+    <t>C0S90</t>
   </si>
   <si>
     <t>A1AD1</t>
   </si>
   <si>
+    <t>C0AH9</t>
+  </si>
+  <si>
+    <t>01U79</t>
+  </si>
+  <si>
+    <t>C0U65</t>
+  </si>
+  <si>
+    <t>C0AD0</t>
+  </si>
+  <si>
+    <t>C0U87</t>
+  </si>
+  <si>
+    <t>46694</t>
+  </si>
+  <si>
+    <t>46691</t>
+  </si>
+  <si>
+    <t>A1AC9</t>
+  </si>
+  <si>
+    <t>O1AH2</t>
+  </si>
+  <si>
     <t>C0AH3</t>
   </si>
   <si>
-    <t>C0A93</t>
-  </si>
-  <si>
-    <t>46691</t>
-  </si>
-  <si>
-    <t>C1Z14</t>
-  </si>
-  <si>
-    <t>C0A55</t>
-  </si>
-  <si>
-    <t>81AI3</t>
-  </si>
-  <si>
-    <t>L1A84</t>
+    <t>01U88</t>
+  </si>
+  <si>
+    <t>01B03</t>
   </si>
   <si>
     <t>01A20</t>
   </si>
   <si>
-    <t>01A44</t>
-  </si>
-  <si>
-    <t>A1AD7</t>
-  </si>
-  <si>
-    <t>C1Z24</t>
+    <t>C1U50</t>
   </si>
   <si>
     <t>C0A87</t>
   </si>
   <si>
-    <t>C0T9G</t>
+    <t>NUP49</t>
+  </si>
+  <si>
+    <t>C0UA7</t>
+  </si>
+  <si>
+    <t>C0U97</t>
+  </si>
+  <si>
+    <t>A1AD4</t>
+  </si>
+  <si>
+    <t>C0A94</t>
+  </si>
+  <si>
+    <t>C0B01</t>
+  </si>
+  <si>
+    <t>81U89</t>
+  </si>
+  <si>
+    <t>81AH5</t>
+  </si>
+  <si>
+    <t>NUP46</t>
+  </si>
+  <si>
+    <t>C1U88</t>
+  </si>
+  <si>
+    <t>A1AD2</t>
+  </si>
+  <si>
+    <t>C0U60</t>
+  </si>
+  <si>
+    <t>81U90</t>
+  </si>
+  <si>
+    <t>C0U86</t>
+  </si>
+  <si>
+    <t>C0U95</t>
+  </si>
+  <si>
+    <t>01A42</t>
+  </si>
+  <si>
+    <t>C0A65</t>
   </si>
   <si>
     <t>46693</t>
   </si>
   <si>
-    <t>C1S88</t>
+    <t>01U46</t>
+  </si>
+  <si>
+    <t>C0U77</t>
+  </si>
+  <si>
+    <t>C0AH0</t>
+  </si>
+  <si>
+    <t>C1U85</t>
   </si>
   <si>
     <t>01AF9</t>
   </si>
   <si>
-    <t>C0A65</t>
-  </si>
-  <si>
-    <t>81T9J</t>
-  </si>
-  <si>
-    <t>L1A82</t>
-  </si>
-  <si>
-    <t>C0A92</t>
-  </si>
-  <si>
-    <t>A1AD6</t>
-  </si>
-  <si>
-    <t>C0AD0</t>
-  </si>
-  <si>
-    <t>01A42</t>
-  </si>
-  <si>
-    <t>C0S77</t>
-  </si>
-  <si>
-    <t>NUP46</t>
-  </si>
-  <si>
-    <t>L1A81</t>
-  </si>
-  <si>
-    <t>A1AD2</t>
-  </si>
-  <si>
-    <t>C0Z25</t>
-  </si>
-  <si>
-    <t>01A21</t>
-  </si>
-  <si>
-    <t>A1AD4</t>
-  </si>
-  <si>
-    <t>82A75</t>
-  </si>
-  <si>
     <t>C0AC4</t>
   </si>
   <si>
-    <t>A1AC9</t>
-  </si>
-  <si>
-    <t>C0A66</t>
-  </si>
-  <si>
-    <t>C0A57</t>
-  </si>
-  <si>
-    <t>88T92</t>
-  </si>
-  <si>
-    <t>C0UA7</t>
-  </si>
-  <si>
-    <t>C1T97</t>
-  </si>
-  <si>
-    <t>01A38</t>
-  </si>
-  <si>
-    <t>C0U95</t>
-  </si>
-  <si>
-    <t>C1A9N</t>
-  </si>
-  <si>
-    <t>C1T98</t>
-  </si>
-  <si>
-    <t>C1R30</t>
-  </si>
-  <si>
-    <t>C1S87</t>
-  </si>
-  <si>
-    <t>C0Z08</t>
+    <t>C0F0E</t>
+  </si>
+  <si>
+    <t>C0UA1</t>
+  </si>
+  <si>
+    <t>C0UA6</t>
+  </si>
+  <si>
+    <t>01U06</t>
+  </si>
+  <si>
+    <t>46762</t>
+  </si>
+  <si>
+    <t>C0AH4</t>
+  </si>
+  <si>
+    <t>C0U98</t>
+  </si>
+  <si>
+    <t>C0B02</t>
+  </si>
+  <si>
+    <t>C0I53</t>
+  </si>
+  <si>
+    <t>81U87</t>
+  </si>
+  <si>
+    <t>C0U96</t>
+  </si>
+  <si>
+    <t>01U47</t>
+  </si>
+  <si>
+    <t>C0F0A</t>
+  </si>
+  <si>
+    <t>C0S91</t>
+  </si>
+  <si>
+    <t>C0F9Z</t>
+  </si>
+  <si>
+    <t>01AG0</t>
+  </si>
+  <si>
+    <t>01S47</t>
+  </si>
+  <si>
+    <t>C0AI2</t>
   </si>
   <si>
     <t>46690</t>
   </si>
   <si>
-    <t>81AH7</t>
-  </si>
-  <si>
-    <t>C0S70</t>
-  </si>
-  <si>
-    <t>C0C67</t>
-  </si>
-  <si>
-    <t>O1AH2</t>
-  </si>
-  <si>
-    <t>A1AD0</t>
-  </si>
-  <si>
-    <t>01R00</t>
-  </si>
-  <si>
-    <t>01AG1</t>
+    <t>A1AA2</t>
+  </si>
+  <si>
+    <t>C0F0D</t>
   </si>
   <si>
     <t>A1A9S</t>
   </si>
   <si>
-    <t>C0R42</t>
-  </si>
-  <si>
-    <t>01T67</t>
-  </si>
-  <si>
-    <t>C0C69</t>
-  </si>
-  <si>
-    <t>C0S69</t>
-  </si>
-  <si>
-    <t>81C72</t>
-  </si>
-  <si>
-    <t>C0AD4</t>
-  </si>
-  <si>
-    <t>01A17</t>
-  </si>
-  <si>
-    <t>01AD9</t>
-  </si>
-  <si>
-    <t>81AH5</t>
-  </si>
-  <si>
-    <t>01B03</t>
-  </si>
-  <si>
-    <t>C1Z04</t>
-  </si>
-  <si>
-    <t>C1T94</t>
-  </si>
-  <si>
-    <t>C1Z11</t>
-  </si>
-  <si>
-    <t>L1A79</t>
-  </si>
-  <si>
-    <t>NUP49</t>
-  </si>
-  <si>
-    <t>O1S68</t>
-  </si>
-  <si>
-    <t>C0T96</t>
-  </si>
-  <si>
-    <t>C0A53</t>
-  </si>
-  <si>
-    <t>C0A52</t>
-  </si>
-  <si>
-    <t>C1T92</t>
-  </si>
-  <si>
-    <t>C0Z32</t>
-  </si>
-  <si>
-    <t>C0R28</t>
-  </si>
-  <si>
-    <t>A1AC5</t>
-  </si>
-  <si>
-    <t>A1AG2</t>
-  </si>
-  <si>
-    <t>C0AG9</t>
-  </si>
-  <si>
-    <t>C0C49</t>
-  </si>
-  <si>
-    <t>L1A83</t>
-  </si>
-  <si>
-    <t>C0B01</t>
-  </si>
-  <si>
-    <t>82C16</t>
-  </si>
-  <si>
-    <t>NUP81</t>
-  </si>
-  <si>
-    <t>01T9J</t>
-  </si>
-  <si>
-    <t>C0C62</t>
-  </si>
-  <si>
-    <t>C0T9B</t>
-  </si>
-  <si>
-    <t>C0C63</t>
-  </si>
-  <si>
-    <t>C0Z30</t>
-  </si>
-  <si>
-    <t>C0Z20</t>
-  </si>
-  <si>
-    <t>C0T9H</t>
-  </si>
-  <si>
-    <t>46688</t>
-  </si>
-  <si>
-    <t>21C05</t>
-  </si>
-  <si>
-    <t>O1AH3</t>
-  </si>
-  <si>
-    <t>C1D64</t>
-  </si>
-  <si>
-    <t>01A16</t>
+    <t>C0F9Y</t>
+  </si>
+  <si>
+    <t>C0S75</t>
+  </si>
+  <si>
+    <t>01U56</t>
+  </si>
+  <si>
+    <t>宜蘭縣蘇澳鎮港區路1號6樓(蘇澳港行政大樓)</t>
+  </si>
+  <si>
+    <t>宜蘭縣五結鄉國民路1號(五結國小)</t>
+  </si>
+  <si>
+    <t>宜蘭縣蘇澳鎮永樂路1號 - 水保局</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉(東澳嶺營區)</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉冬山路98-5號(冬山消防分隊)</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉冬山村(水利會冬山工作站) - 第1河川局</t>
+  </si>
+  <si>
+    <t>宜蘭縣宜蘭市力行路150號</t>
+  </si>
+  <si>
+    <t>宜蘭縣羅東鎮羅東運動公園南側(北成路二段停車場旁自行車道入口)</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉北成里(五結堤防堤頂) - 第1河川局</t>
+  </si>
+  <si>
+    <t>宜蘭縣蘇澳鎮(南澳事業區11林班)</t>
+  </si>
+  <si>
+    <t>新北市貢寮區吉林里內寮街55號 - 第1河川局</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉(中山瀑布附近)</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉中山村中山路126號 - 第1河川局</t>
+  </si>
+  <si>
+    <t>新北市瑞芳區北37縣道(瑞侯公路) - 第10河川局</t>
   </si>
   <si>
     <t>新北市萬里區溪底里香員林6-3號</t>
   </si>
   <si>
-    <t>花蓮縣萬榮鄉林道16K(馬錫山) - 第9河川局</t>
-  </si>
-  <si>
-    <t>花蓮縣萬榮鄉(太田事業區128林班、馬太鞍苗圃)</t>
+    <t>新北市瑞芳區龍山里逢甲路360號(義方國小)</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉台泥大白山運石道附近山區(羅東事業區96林班)</t>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉大進路七路51號(大進國小)</t>
+  </si>
+  <si>
+    <t>宜蘭縣三星鄉大義村上將三段81巷6號</t>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉員山村復興路39號(員山國小)</t>
+  </si>
+  <si>
+    <t>新北市瑞芳區龍山里瑞芳街60號(瑞芳高工) - 第10河川局</t>
+  </si>
+  <si>
+    <t>新北市雙溪區雙溪里(社區活動中心旁花圃)</t>
+  </si>
+  <si>
+    <t>新北市金山區(三和國小兩湖分校)</t>
+  </si>
+  <si>
+    <t>新北市瑞芳區弓橋里 - 水保局</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉寒溪村寒溪巷16號(寒溪國小) - 水保局</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉安平坑林道(力霸產業道路)附近山區(南澳事業區28林班)</t>
+  </si>
+  <si>
+    <t>新北市石門區山溪里10鄰九芎林13號(石門國小山溪分班附近)</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉東岳村蘇花路三段209號(東澳國小)</t>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉雙連埤地區</t>
+  </si>
+  <si>
+    <t>宜蘭縣三星鄉月眉街54號(三星國中)</t>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉內城路545號(內城國中小)</t>
+  </si>
+  <si>
+    <t>新北市雙溪區泰平里8鄰大平路43號(泰平國小分校附近)</t>
+  </si>
+  <si>
+    <t>新北市貢寮區(遊客中心後)</t>
+  </si>
+  <si>
+    <t>新北市雙溪區長源里柑腳3號 - 水保局</t>
+  </si>
+  <si>
+    <t>臺東縣蘭嶼鄉椰油村37號(蘭嶼高中內)</t>
   </si>
   <si>
     <t>臺北市士林區陽明山國家公園擎天崗觀景臺南方200公尺 - 北市府大地工程處</t>
   </si>
   <si>
+    <t>新北市烏來區福山植物園(生活植物區之民俗植物區觀測坪)</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉三星路八段501巷156號之1(清水地熱發電廠) - 第1河川局</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉松羅村鹿場路11號(松羅山頂瞭望亭旁)</t>
+  </si>
+  <si>
+    <t>新北市三芝區育英路22號(三芝國小)</t>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉二結村一鄰9-1號(國立宜蘭大學實驗林場)</t>
+  </si>
+  <si>
+    <t>基隆市仁愛區港西街6號6樓(海港大樓)</t>
+  </si>
+  <si>
+    <t>臺北市北投區陽明山竹子湖路111號</t>
+  </si>
+  <si>
+    <t>臺北市士林區萬溪產業道路支線1K+650 - 北市府大地工程處</t>
+  </si>
+  <si>
+    <t>新北市雙溪區上林里內平林60號 - 第1河川局</t>
+  </si>
+  <si>
     <t>新北市瑞芳區靜安路四段1巷1號(五分山雷達站旁)</t>
   </si>
   <si>
-    <t>新北市金山區(三和國小兩湖分校)</t>
-  </si>
-  <si>
-    <t>臺北市北投區陽明山竹子湖路111號</t>
-  </si>
-  <si>
-    <t>花蓮縣秀林鄉</t>
-  </si>
-  <si>
-    <t>新北市雙溪區泰平里8鄰大平路43號(泰平國小分校附近)</t>
-  </si>
-  <si>
-    <t>新北市瑞芳區弓橋里 - 水保局</t>
-  </si>
-  <si>
-    <t>新北市雙溪區泰平里 - 翡翠水庫</t>
+    <t>宜蘭縣員山鄉湖西村雙埤路福山1號(福山植物園) - 第10河川局</t>
+  </si>
+  <si>
+    <t>基隆市七堵區堵北里 - 第10河川局</t>
   </si>
   <si>
     <t>新北市平溪區東勢里番子坑34-2號 - 第10河川局</t>
   </si>
   <si>
-    <t>新北市烏來區忠治里(大桶山) - 第10河川局</t>
-  </si>
-  <si>
-    <t>臺北市南港區舊庄路二段(茶葉製造示範場停車場) - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>花蓮縣卓溪鄉中平林道(玉里林道)約15K鐵牌處步行上山高地</t>
+    <t>宜蘭縣大同鄉</t>
   </si>
   <si>
     <t>新北市汐止區(國軍示範公墓旁、復興廣播電臺前)</t>
   </si>
   <si>
-    <t>花蓮縣鳳林鎮</t>
+    <t>基隆市七堵區華新二路21號 - 第10河川局</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮及新北市貢寮區交界之桃源谷附近空地</t>
+  </si>
+  <si>
+    <t>宜蘭縣壯圍鄉大福路一段62巷26號(大福國小)</t>
+  </si>
+  <si>
+    <t>臺北市北投區陽金公路(往小油坑風景區方向) - 北市府大地工程處</t>
+  </si>
+  <si>
+    <t>新北市金山區中興段404地號(磺港社區活動中心旁)</t>
+  </si>
+  <si>
+    <t>基隆市七堵區東新街22號(基隆商工樓頂)</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮濱海路七段65號 - 水保局</t>
+  </si>
+  <si>
+    <t>新北市萬里區瑪鋉路18號 - 水保局</t>
+  </si>
+  <si>
+    <t>新北市平溪區南山坪136號(停車場) - 第10河川局</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮</t>
+  </si>
+  <si>
+    <t>臺北市北投區竹子湖產業道路3K+200(青菜園餐廳附近) - 北市府大地工程處</t>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉礁溪路四段23號(礁溪國中宿舍旁)</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮濱海路四段250號 - 水保局</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮協天路468號(中華電信頭城海纜站)</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮(鶯子嶺通信站區內)</t>
+  </si>
+  <si>
+    <t>臺北市士林區陽明山竹子湖路2號 - 第10河川局</t>
+  </si>
+  <si>
+    <t>新北市平溪區東勢里</t>
   </si>
   <si>
     <t>臺北市北投區陽明山竹子湖路2號</t>
   </si>
   <si>
-    <t>臺東縣達仁鄉(大武事業區48林班、電信轉播站後)</t>
+    <t>宜蘭縣礁溪鄉大忠村大忠路 - 第1河川局</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉(南澳地震站)</t>
+  </si>
+  <si>
+    <t>新北市汐止區大同路二段394號(汐止國中)</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉(和平事業區91林班)</t>
   </si>
   <si>
     <t>新北市瑞芳區魚寮路底(三貂嶺火車站旁) - 第10河川局</t>
   </si>
   <si>
-    <t>新北市平溪區東勢里</t>
-  </si>
-  <si>
-    <t>花蓮縣鳳林鎮鳳義里 - 水保局</t>
-  </si>
-  <si>
-    <t>新北市石碇區永安里 - 翡翠水庫</t>
-  </si>
-  <si>
-    <t>新北市石門區山溪里10鄰九芎林13號(石門國小山溪分班附近)</t>
-  </si>
-  <si>
-    <t>臺北市文山區(指南水保教室旁停車場) - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>新北市三芝區育英路22號(三芝國小)</t>
-  </si>
-  <si>
-    <t>臺北市士林區陽明山竹子湖路2號 - 第10河川局</t>
-  </si>
-  <si>
-    <t>臺東縣太麻里鄉多良村(原中華電信轉播站旁)</t>
-  </si>
-  <si>
-    <t>新北市平溪區南山坪136號(停車場) - 第10河川局</t>
-  </si>
-  <si>
-    <t>新北市石碇區碧山里 - 翡翠水庫</t>
-  </si>
-  <si>
-    <t>臺北市北投區竹子湖產業道路3K+200(青菜園餐廳附近) - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>花蓮縣卓溪鄉瑞穗林道約7.5K瑞欣礦區下方空地</t>
-  </si>
-  <si>
-    <t>新北市三峽區插角里 - 第10河川局</t>
-  </si>
-  <si>
-    <t>臺北市北投區陽金公路(往小油坑風景區方向) - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>新北市石碇區格頭里北宜路五段12號</t>
-  </si>
-  <si>
     <t>臺北市北投區湖田段461-6地號(民航局大屯山助航臺)</t>
   </si>
   <si>
-    <t>臺北市士林區萬溪產業道路支線1K+650 - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>新北市瑞芳區龍山里逢甲路360號(義方國小)</t>
-  </si>
-  <si>
-    <t>新北市烏來區后桶街49號孝義里5K-6K</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉大興村民權街17號 - 水保局</t>
-  </si>
-  <si>
-    <t>宜蘭縣頭城鎮及新北市貢寮區交界之桃源谷附近空地</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉大農段691地號(花蓮糖廠大農農場)</t>
-  </si>
-  <si>
-    <t>新北市瑞芳區龍山里瑞芳街60號(瑞芳高工) - 第10河川局</t>
-  </si>
-  <si>
-    <t>宜蘭縣頭城鎮(鶯子嶺通信站區內)</t>
-  </si>
-  <si>
-    <t>新北市新店區北宜公路(文山事業區4林班)</t>
-  </si>
-  <si>
-    <t>花蓮縣秀林鄉(龍澗發電廠旁)</t>
-  </si>
-  <si>
-    <t>屏東縣牡丹鄉旭海村6號(旭海分駐所附近)</t>
-  </si>
-  <si>
-    <t>臺東縣成功鎮(南美山產業道路底附近)</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉大豐村9鄰265號(富源國中對面山腰)</t>
+    <t>臺中市和平區南湖大山指標20K處附近(南湖主峰東峰岔路附近)</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉100線林道15K(太平山32林班、鴛鴦湖工作站旁空地)</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉武塔村樟樹山附近山區</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉英土村(梵梵派出所) - 第1河川局</t>
+  </si>
+  <si>
+    <t>臺東縣蘭嶼鄉紅頭村2號</t>
+  </si>
+  <si>
+    <t>臺北市士林區平菁街101號(平等國小)</t>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮(頭城與坪林交界附近之國有林班地、坪林石牌附近山區)</t>
+  </si>
+  <si>
+    <t>基隆市中正區基隆嶼</t>
+  </si>
+  <si>
+    <t>南投縣仁愛鄉小奇萊山指標1.4K處(小奇萊山頂附近)</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉 - 水保局</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉(太平山翠峰湖停車場木棧道旁)</t>
+  </si>
+  <si>
+    <t>宜蘭縣南澳鄉武塔村新溪路4號 - 第1河川局</t>
+  </si>
+  <si>
+    <t>臺中市和平區(雪山9.8K-9.9K)</t>
+  </si>
+  <si>
+    <t>臺東縣蘭嶼鄉椰油段1-7地號(蘭嶼燈塔旁)</t>
+  </si>
+  <si>
+    <t>臺中市和平區(雪山東峰停機坪旁)</t>
+  </si>
+  <si>
+    <t>新北市汐止區中興路社后橋 - 第10河川局</t>
+  </si>
+  <si>
+    <t>臺東縣海端鄉向陽村(向陽遊樂區行政中心旁) - 第8河川局</t>
+  </si>
+  <si>
+    <t>新北市石門區德茂里下員坑33-6號(白沙灣遊客中心樓頂)</t>
   </si>
   <si>
     <t>新北市淡水區中正東路42巷6號</t>
   </si>
   <si>
-    <t>新北市雙溪區長源里柑腳3號 - 水保局</t>
-  </si>
-  <si>
-    <t>臺東縣卑南鄉溫泉村(溫泉國小樂山分校)</t>
-  </si>
-  <si>
-    <t>桃園市龍潭區中興路726號(龍潭消防分隊)</t>
-  </si>
-  <si>
-    <t>新北市雙溪區上林里內平林60號 - 第1河川局</t>
-  </si>
-  <si>
-    <t>臺北市士林區中華電信國際分公司海衛處二中心(陽明山地面電臺) - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔村 - 第7河川局</t>
-  </si>
-  <si>
-    <t>新北市三峽區竹坑路底 - 第10河川局</t>
+    <t>臺北市士林區平菁街101號 - 北市府水利處</t>
+  </si>
+  <si>
+    <t>臺中市和平區審馬陣山指標16.2K處(審馬陣山岔路附近)</t>
   </si>
   <si>
     <t>臺北市北投區陽明山竹子湖路17-2號 - 北市府水利處</t>
   </si>
   <si>
-    <t>屏東縣牡丹鄉(恆春事業區21林班、電信轉播台附近)</t>
-  </si>
-  <si>
-    <t>花蓮縣萬榮鄉西林村 - 第9河川局</t>
-  </si>
-  <si>
-    <t>桃園市龜山區國一高速公路五楊北上44K處</t>
-  </si>
-  <si>
-    <t>臺東縣太麻里鄉佳崙產業道路(往金針山茶區方向)</t>
-  </si>
-  <si>
-    <t>桃園市復興區奎輝里8鄰14號 - 水保局</t>
-  </si>
-  <si>
-    <t>新北市土城區金城路一段90號(土城消防分隊)</t>
-  </si>
-  <si>
-    <t>新北市坪林區坪林街114號(坪林國小附近) - 第10河川局</t>
-  </si>
-  <si>
-    <t>新北市烏來區 - 第10河川局</t>
-  </si>
-  <si>
-    <t>新北市萬里區瑪鋉路18號 - 水保局</t>
-  </si>
-  <si>
-    <t>基隆市七堵區堵北里 - 第10河川局</t>
-  </si>
-  <si>
-    <t>花蓮縣卓溪鄉立山村(後山)</t>
-  </si>
-  <si>
-    <t>花蓮縣萬榮鄉台16線12K</t>
-  </si>
-  <si>
-    <t>花蓮縣秀林鄉(雙露山)</t>
-  </si>
-  <si>
-    <t>新北市新店區新烏路三段43號 - 翡翠水庫</t>
-  </si>
-  <si>
-    <t>基隆市七堵區華新二路21號 - 第10河川局</t>
-  </si>
-  <si>
-    <t>臺東縣金峰鄉金山段125地號 - 第8河川局</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉大進村糖廠街19號(花蓮光復糖廠)</t>
-  </si>
-  <si>
-    <t>新北市坪林區</t>
-  </si>
-  <si>
-    <t>新北市樹林區中山路三段5號(山佳國小)</t>
-  </si>
-  <si>
-    <t>花蓮縣壽豐鄉(中興大橋旁)</t>
-  </si>
-  <si>
-    <t>花蓮縣卓溪鄉清水林道北側山區(新生段1地號)</t>
-  </si>
-  <si>
-    <t>屏東縣滿州鄉長樂村大公路14號(往南仁山方向)</t>
-  </si>
-  <si>
-    <t>臺北市南港區舊庄路一段(山豬窟垃圾衛生掩埋場附近) - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>臺北市內湖區內湖大湖街219巷(石崁山步道口) - 北市府大地工程處</t>
-  </si>
-  <si>
-    <t>新北市中和區錦和路350號(錦和運動公園)</t>
-  </si>
-  <si>
-    <t>桃園市八德區興仁里興豐路222號(八德國小)</t>
-  </si>
-  <si>
-    <t>新北市坪林區水德里 - 翡翠水庫</t>
-  </si>
-  <si>
-    <t>基隆市七堵區東新街22號(基隆商工樓頂)</t>
-  </si>
-  <si>
-    <t>桃園市楊梅區金龍里中興路324號</t>
-  </si>
-  <si>
-    <t>新北市瑞芳區北37縣道(瑞侯公路) - 第10河川局</t>
-  </si>
-  <si>
-    <t>花蓮縣富里鄉竹田村25鄰雲閩36號(彭大媽客家食堂) - 第9河川局</t>
-  </si>
-  <si>
-    <t>桃園市蘆竹區坑口里14鄰</t>
-  </si>
-  <si>
-    <t>花蓮縣秀林鄉原水源段(苗圃)</t>
-  </si>
-  <si>
-    <t>桃園市大溪區員林路二段450號(員樹林國小)</t>
-  </si>
-  <si>
-    <t>花蓮縣富里鄉東里村大莊路52號(東里消防分隊)</t>
-  </si>
-  <si>
-    <t>花蓮縣鳳林鎮長橋里長橋路2號(長橋國小)</t>
-  </si>
-  <si>
-    <t>花蓮縣豐濱鄉臨海段776-4地號(加路蘭山營區)</t>
-  </si>
-  <si>
-    <t>新北市板橋區大觀路二段265巷62號</t>
-  </si>
-  <si>
-    <t>桃園市龍潭區(石門水庫運轉中心) - 石門水庫</t>
-  </si>
-  <si>
-    <t>新北市貢寮區吉林里內寮街55號 - 第1河川局</t>
-  </si>
-  <si>
-    <t>新竹縣北埔鄉大坪段內大坪小段36-54地號</t>
-  </si>
-  <si>
-    <t>新北市林口區民治路25號 - 第10河川局</t>
+    <t>臺中市和平區(桃山山屋叉路解說牌附近)</t>
+  </si>
+  <si>
+    <t>臺東縣海端鄉向陽工務段</t>
+  </si>
+  <si>
+    <t>宜蘭縣大同鄉太平村太平巷 - 第1河川局</t>
   </si>
 </sst>
 </file>
@@ -1737,13 +1866,13 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1757,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1777,13 +1906,13 @@
         <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1797,13 +1926,13 @@
         <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1817,13 +1946,13 @@
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1837,13 +1966,13 @@
         <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1857,13 +1986,13 @@
         <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1877,13 +2006,13 @@
         <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1897,13 +2026,13 @@
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1917,13 +2046,13 @@
         <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1937,13 +2066,13 @@
         <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1954,16 +2083,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1974,16 +2103,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="F14" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1994,16 +2123,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2014,16 +2143,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="F16" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2034,16 +2163,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="F17" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2054,16 +2183,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2074,16 +2203,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2094,16 +2223,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2114,16 +2243,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="F21" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2134,16 +2263,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="F22" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2154,16 +2283,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2174,16 +2303,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2194,16 +2323,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="F25" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2214,16 +2343,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="F26" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2234,16 +2363,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2254,16 +2383,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="F28" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2274,16 +2403,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2294,16 +2423,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="F30" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2314,16 +2443,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="F31" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2334,16 +2463,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="F32" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2354,16 +2483,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2374,16 +2503,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="F34" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2394,16 +2523,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="F35" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2414,16 +2543,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2434,16 +2563,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="F37" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2454,16 +2583,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="F38" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2474,16 +2603,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="F39" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2494,16 +2623,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="F40" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2514,16 +2643,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="F41" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2534,16 +2663,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="F42" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2554,16 +2683,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2574,16 +2703,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="F44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2594,16 +2723,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2614,16 +2743,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="F46" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2634,16 +2763,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="F47" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2654,16 +2783,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="F48" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2674,16 +2803,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2694,16 +2823,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2714,16 +2843,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="F51" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2734,16 +2863,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2754,16 +2883,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="F53" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2774,16 +2903,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="F54" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2794,16 +2923,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="F55" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2814,16 +2943,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="F56" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2834,16 +2963,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="F57" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2854,16 +2983,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="F58" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2874,16 +3003,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="F59" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2894,16 +3023,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2914,16 +3043,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="F61" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2934,16 +3063,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="F62" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2954,16 +3083,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="F63" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2974,16 +3103,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="F64" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2994,16 +3123,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="F65" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3014,16 +3143,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="F66" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3034,16 +3163,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="F67" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3054,16 +3183,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="F68" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3074,16 +3203,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="F69" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3094,16 +3223,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="F70" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3114,16 +3243,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="F71" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3134,16 +3263,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="F72" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3154,16 +3283,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="E73" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="F73" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3174,16 +3303,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="F74" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3194,16 +3323,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="F75" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3214,16 +3343,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="F76" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3234,16 +3363,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="E77" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="F77" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3254,16 +3383,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D78" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="E78" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3274,16 +3403,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="F79" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3294,16 +3423,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="F80" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3314,16 +3443,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="F81" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3334,16 +3463,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="E82" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="F82" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3354,16 +3483,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="E83" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="F83" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3374,16 +3503,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="E84" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="F84" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3394,16 +3523,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="F85" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3414,16 +3543,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="E86" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="F86" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3434,16 +3563,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="F87" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3454,16 +3583,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="E88" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="F88" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3474,16 +3603,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="E89" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3494,16 +3623,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3514,16 +3643,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="F91" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3534,16 +3663,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="E92" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="F92" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3554,16 +3683,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="E93" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="F93" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3574,16 +3703,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="E94" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="F94" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3594,16 +3723,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="F95" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3614,16 +3743,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="E96" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="F96" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3634,16 +3763,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="E97" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="F97" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3654,16 +3783,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="E98" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3674,16 +3803,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E99" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="F99" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3694,16 +3823,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="E100" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="F100" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3714,16 +3843,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="F101" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
